--- a/COURSE_9_IBM_Data_Analyst_Capstone_Project/Week1/LAB2/job-postings.xlsx
+++ b/COURSE_9_IBM_Data_Analyst_Capstone_Project/Week1/LAB2/job-postings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Locations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Technologies" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Locations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Technologies" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>980</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
